--- a/Data/EC/NIT-9007507626.xlsx
+++ b/Data/EC/NIT-9007507626.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4323E2-C9C3-4FC2-AC7D-C04A440BAC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFA193A5-EBEC-4D57-8C95-8D5690E6F7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E3BBE106-E8FE-4BCC-89E1-5C184FE4B5C0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8600FC4A-C761-48C2-BE9E-07F2ACC1BEC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,76 +71,76 @@
     <t>LIZETH MARIA ORTEGA QUEZADA</t>
   </si>
   <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -239,7 +239,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -252,9 +254,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,23 +454,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,10 +498,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{857EC577-DC7B-6EFE-8E00-1031BAD609CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18160741-09E5-C860-7932-5CC61E52B452}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CACCE5-8638-4945-8D5E-8598867F2469}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5D81A6-7A61-459F-BD0B-91E06DF93C22}">
   <dimension ref="B2:J45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1083,10 +1083,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>23437</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1106,10 +1106,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>33125</v>
+        <v>23437</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1129,10 +1129,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>33125</v>
+        <v>23437</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1152,10 +1152,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>33125</v>
+        <v>23437</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1175,10 +1175,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>33125</v>
+        <v>23437</v>
       </c>
       <c r="G20" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1198,10 +1198,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>33125</v>
+        <v>23437</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1221,10 +1221,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>33125</v>
+        <v>23437</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1244,10 +1244,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>33125</v>
+        <v>23437</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1267,10 +1267,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>33125</v>
+        <v>23437</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1293,7 +1293,7 @@
         <v>31249</v>
       </c>
       <c r="G25" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1316,7 +1316,7 @@
         <v>31249</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1339,7 +1339,7 @@
         <v>31249</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1362,7 +1362,7 @@
         <v>31249</v>
       </c>
       <c r="G28" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1385,7 +1385,7 @@
         <v>31249</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1408,7 +1408,7 @@
         <v>31249</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1428,10 +1428,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>23437</v>
+        <v>33125</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1451,10 +1451,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>23437</v>
+        <v>33125</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1474,10 +1474,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>23437</v>
+        <v>33125</v>
       </c>
       <c r="G33" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1497,10 +1497,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>23437</v>
+        <v>33125</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1520,10 +1520,10 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>23437</v>
+        <v>33125</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1543,10 +1543,10 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>23437</v>
+        <v>33125</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1566,10 +1566,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>23437</v>
+        <v>33125</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1589,10 +1589,10 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>23437</v>
+        <v>33125</v>
       </c>
       <c r="G38" s="18">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1612,10 +1612,10 @@
         <v>34</v>
       </c>
       <c r="F39" s="24">
-        <v>23437</v>
+        <v>33125</v>
       </c>
       <c r="G39" s="24">
-        <v>781242</v>
+        <v>828116</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
